--- a/Rev7/Docs/BOM.xlsx
+++ b/Rev7/Docs/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nuvem\Dropbox\Eletronica\eagle\8bits\Speccy\TK90X\rev7\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dirgit\8bits\TK90X-PCB\Rev7\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>PCB TK90X - Rev 7</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Conector Teclado 5 pinos</t>
   </si>
   <si>
-    <t>Pinheader 3 pinos</t>
-  </si>
-  <si>
     <t>2,54mm</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>Mod. PJ-301A</t>
   </si>
   <si>
-    <t>Keystone 589/938 or PDI RCA-061X-Y</t>
-  </si>
-  <si>
     <t>TE Connectivity Trio Mate 5-520314-5</t>
   </si>
   <si>
@@ -249,6 +243,9 @@
   </si>
   <si>
     <t>NorComp 177-009-110-061</t>
+  </si>
+  <si>
+    <t>AV-8.4-3, Keystone 589/938 or PDI RCA-061X-Y</t>
   </si>
 </sst>
 </file>
@@ -602,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,10 +983,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,10 +1000,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1023,10 +1020,10 @@
         <v>59</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1040,7 +1037,7 @@
         <v>62</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1057,7 +1054,7 @@
         <v>64</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1074,18 +1071,18 @@
         <v>63</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,15 +1090,6 @@
         <v>1</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">

--- a/Rev7/Docs/BOM.xlsx
+++ b/Rev7/Docs/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>PCB TK90X - Rev 7</t>
   </si>
@@ -246,13 +246,25 @@
   </si>
   <si>
     <t>AV-8.4-3, Keystone 589/938 or PDI RCA-061X-Y</t>
+  </si>
+  <si>
+    <t>OBSERVAÇÕES</t>
+  </si>
+  <si>
+    <t>Se for montar com 32K de RAM alta, reduzir um</t>
+  </si>
+  <si>
+    <t>resistor de 1K (comprar somente 5) e reduzir dois</t>
+  </si>
+  <si>
+    <t>diodos 1N4148 (comprar somente 22)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,13 +288,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -297,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -316,6 +341,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,10 +952,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="8">
         <v>24</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1098,6 +1132,10 @@
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1106,6 +1144,10 @@
       <c r="B36" s="4">
         <v>75</v>
       </c>
+      <c r="E36" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -1114,6 +1156,10 @@
       <c r="B37" s="4">
         <v>100</v>
       </c>
+      <c r="E37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1122,6 +1168,10 @@
       <c r="B38" s="4">
         <v>150</v>
       </c>
+      <c r="E38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -1148,10 +1198,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="8">
         <v>6</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1173,7 +1223,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>32</v>

--- a/Rev7/Docs/BOM.xlsx
+++ b/Rev7/Docs/BOM.xlsx
@@ -173,9 +173,6 @@
     <t>100u/6V3</t>
   </si>
   <si>
-    <t>100u/10V</t>
-  </si>
-  <si>
     <t>100u/16V</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>diodos 1N4148 (comprar somente 22)</t>
+  </si>
+  <si>
+    <t>1000u/10V</t>
   </si>
 </sst>
 </file>
@@ -336,12 +336,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +344,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,25 +649,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -819,7 +819,7 @@
         <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>47</v>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>47</v>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>47</v>
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>47</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,17 +913,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="9"/>
       <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
@@ -931,7 +931,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,17 +945,17 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>24</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -974,11 +974,11 @@
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="D24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
@@ -988,22 +988,22 @@
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="9"/>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1068,10 +1068,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1085,10 +1085,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1102,10 +1102,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1113,17 +1113,17 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="6"/>
+      <c r="A34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1132,10 +1132,10 @@
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="7"/>
+      <c r="E35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1144,10 +1144,10 @@
       <c r="B36" s="4">
         <v>75</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="7"/>
+      <c r="E36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -1156,10 +1156,10 @@
       <c r="B37" s="4">
         <v>100</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="7"/>
+      <c r="E37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1168,10 +1168,10 @@
       <c r="B38" s="4">
         <v>150</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="7"/>
+      <c r="E38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -1198,10 +1198,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="6">
         <v>6</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Rev7/Docs/BOM.xlsx
+++ b/Rev7/Docs/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>PCB TK90X - Rev 7</t>
   </si>
@@ -258,6 +258,27 @@
   </si>
   <si>
     <t>1000u/10V</t>
+  </si>
+  <si>
+    <t>Soquetes</t>
+  </si>
+  <si>
+    <t>40 pinos</t>
+  </si>
+  <si>
+    <t>28 pinos largo</t>
+  </si>
+  <si>
+    <t>20 pinos</t>
+  </si>
+  <si>
+    <t>18 pinos</t>
+  </si>
+  <si>
+    <t>16 pinos</t>
+  </si>
+  <si>
+    <t>14 pinos</t>
   </si>
 </sst>
 </file>
@@ -322,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -336,19 +357,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,25 +676,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -913,17 +940,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
@@ -952,10 +979,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>24</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -974,11 +1001,11 @@
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
@@ -992,10 +1019,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="10"/>
       <c r="D26" s="1">
         <v>1</v>
       </c>
@@ -1120,10 +1147,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="9"/>
+      <c r="A34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1132,10 +1159,11 @@
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="5"/>
+      <c r="D35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1144,10 +1172,12 @@
       <c r="B36" s="4">
         <v>75</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="5"/>
+      <c r="D36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -1156,10 +1186,12 @@
       <c r="B37" s="4">
         <v>100</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="5"/>
+      <c r="D37" s="8">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1168,10 +1200,12 @@
       <c r="B38" s="4">
         <v>150</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="5"/>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -1179,6 +1213,12 @@
       </c>
       <c r="B39" s="4">
         <v>220</v>
+      </c>
+      <c r="D39" s="8">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1188,6 +1228,12 @@
       <c r="B40" s="4">
         <v>470</v>
       </c>
+      <c r="D40" s="8">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -1196,13 +1242,25 @@
       <c r="B41" s="4">
         <v>680</v>
       </c>
+      <c r="D41" s="8">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>6</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>29</v>
+      </c>
+      <c r="D42" s="8">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1220,6 +1278,10 @@
       <c r="B44" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="E44" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -1228,6 +1290,10 @@
       <c r="B45" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="E45" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -1236,6 +1302,10 @@
       <c r="B46" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="E46" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -1244,9 +1314,14 @@
       <c r="B47" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="E47" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="A34:B34"/>
@@ -1255,6 +1330,10 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D19:F19"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
